--- a/TableLast.xlsx
+++ b/TableLast.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -50,12 +50,21 @@
   <si>
     <t>S</t>
   </si>
+  <si>
+    <t>До проверки М</t>
+  </si>
+  <si>
+    <t>После проверки М</t>
+  </si>
+  <si>
+    <t>Последний фикс</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +74,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,25 +115,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,9 +220,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +272,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,22 +465,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="7" width="9.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -468,7 +535,7 @@
         <v>1936.492</v>
       </c>
       <c r="H2" s="2">
-        <v>2.4380000000000002</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I2" s="2">
         <v>1.95</v>
@@ -477,10 +544,15 @@
         <v>2.15</v>
       </c>
       <c r="K2" s="2">
-        <v>5.2409999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>5.2679999999999998</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -499,7 +571,7 @@
         <v>488.68799999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>1.2529999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="I3" s="2">
         <v>1.1000000000000001</v>
@@ -508,10 +580,10 @@
         <v>1.3</v>
       </c>
       <c r="K3" s="2">
-        <v>1.629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -533,16 +605,16 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I4" s="2">
-        <v>1.9550000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="J4" s="2">
-        <v>2.1549999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="K4" s="2">
-        <v>2.4780000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -564,16 +636,16 @@
         <v>4.05</v>
       </c>
       <c r="I5" s="2">
-        <v>6.7169999999999996</v>
+        <v>6.7</v>
       </c>
       <c r="J5" s="2">
-        <v>6.9169999999999998</v>
+        <v>6.9</v>
       </c>
       <c r="K5" s="2">
-        <v>28.013999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>27.945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -604,7 +676,7 @@
         <v>4.1849999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -635,7 +707,7 @@
         <v>1.8129999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -654,7 +726,7 @@
         <v>98.772000000000006</v>
       </c>
       <c r="H8" s="2">
-        <v>3.0750000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="I8" s="2">
         <v>0.75</v>
@@ -663,10 +735,10 @@
         <v>0.95</v>
       </c>
       <c r="K8" s="2">
-        <v>2.9209999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2.9449999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -688,16 +760,16 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>1.9550000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="J9" s="2">
-        <v>2.1549999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="K9" s="2">
-        <v>2.4780000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -719,16 +791,16 @@
         <v>4.05</v>
       </c>
       <c r="I10" s="2">
-        <v>6.7169999999999996</v>
+        <v>6.7</v>
       </c>
       <c r="J10" s="2">
-        <v>6.9169999999999998</v>
+        <v>6.9</v>
       </c>
       <c r="K10" s="2">
-        <v>28.013999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>27.945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -759,7 +831,7 @@
         <v>4.1849999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -778,7 +850,7 @@
         <v>194.084</v>
       </c>
       <c r="H12" s="2">
-        <v>1.575</v>
+        <v>1.6</v>
       </c>
       <c r="I12" s="2">
         <v>1.05</v>
@@ -787,10 +859,10 @@
         <v>1.25</v>
       </c>
       <c r="K12" s="2">
-        <v>1.9690000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -821,7 +893,7 @@
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -843,28 +915,921 @@
         <v>1.05</v>
       </c>
       <c r="I14" s="2">
-        <v>2.5609999999999999</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J14" s="2">
-        <v>2.7610000000000001</v>
+        <v>2.75</v>
       </c>
       <c r="K14" s="2">
-        <v>2.899</v>
+        <v>2.8879999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>1161.29</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1936.492</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K22" s="2">
+        <v>5.2679999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>360</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>1085.549</v>
+      </c>
+      <c r="G23" s="2">
+        <v>488.68799999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1024.6679999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1117.2449999999999</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>680</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.6585000000000001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>926.56299999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4049.7359999999999</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K25" s="2">
+        <v>27.945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>967.74199999999996</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1332.479</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1290.3230000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>774.59699999999998</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>719.01700000000005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>276.56299999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1024.6679999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1117.2449999999999</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
+        <v>680</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.6585000000000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>926.56299999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4049.7359999999999</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="I30" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J30" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K30" s="2">
+        <v>27.945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2">
+        <v>967.74199999999996</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1332.479</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2">
+        <v>1075.29</v>
+      </c>
+      <c r="G32" s="2">
+        <v>194.084</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>752.68799999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>322.74900000000002</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>13</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>815.03099999999995</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1012.428</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2.8879999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>1161.29</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1936.492</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K38" s="2">
+        <v>5.2679999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2">
+        <v>360</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>1085.549</v>
+      </c>
+      <c r="G39" s="2">
+        <v>488.68799999999999</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1024.6679999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1117.2449999999999</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>680</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.6585000000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>926.56299999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4049.7359999999999</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="I41" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J41" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K41" s="2">
+        <v>27.945</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>967.74199999999996</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1332.479</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="K42" s="2">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1290.3230000000001</v>
+      </c>
+      <c r="E43" s="2">
+        <v>774.59699999999998</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="P43" s="5">
+        <v>43072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="4">
+        <v>719.01700000000005</v>
+      </c>
+      <c r="G44" s="4">
+        <v>276.56299999999999</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K44" s="4">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1024.6679999999999</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1117.2449999999999</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2.4729999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>9</v>
+      </c>
+      <c r="B46" s="2">
+        <v>680</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.6585000000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>926.56299999999999</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4049.7359999999999</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2">
+        <v>4.05</v>
+      </c>
+      <c r="I46" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="K46" s="2">
+        <v>27.945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>967.74199999999996</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1332.479</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="K47" s="2">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>11</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2">
+        <v>1075.29</v>
+      </c>
+      <c r="G48" s="2">
+        <v>194.084</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="K48" s="4">
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>752.68799999999999</v>
+      </c>
+      <c r="E49" s="2">
+        <v>322.74900000000002</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="J49" s="4">
+        <v>5</v>
+      </c>
+      <c r="K49" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="D50" s="2">
+        <v>815.03099999999995</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1012.428</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="K50" s="2">
+        <v>2.8879999999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M43:N43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -872,12 +1837,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
